--- a/data_year/zb/批发和零售业/连锁零售企业/按业态分连锁零售企业零售营业面积.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按业态分连锁零售企业零售营业面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,760 +498,517 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>352.5512</v>
+        <v>6755.3</v>
       </c>
       <c r="C2" t="n">
-        <v>34.1714</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>450.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>107.2</v>
+      </c>
       <c r="F2" t="n">
-        <v>37.6478</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4741.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1843.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21.4</v>
+      </c>
       <c r="L2" t="n">
-        <v>334.6435</v>
+        <v>1480.6</v>
       </c>
       <c r="M2" t="n">
-        <v>930.4755</v>
+        <v>1924.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>887.871</v>
+        <v>7142.531</v>
       </c>
       <c r="C3" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>366.7129</v>
+      </c>
+      <c r="D3" t="n">
+        <v>234.1744</v>
+      </c>
+      <c r="E3" t="n">
+        <v>109.665</v>
+      </c>
       <c r="F3" t="n">
-        <v>3.8457</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>55.9865</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4737.8976</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1581</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1760.6241</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60.7638</v>
+      </c>
+      <c r="K3" t="n">
+        <v>26.8552</v>
+      </c>
       <c r="L3" t="n">
-        <v>455.9992</v>
+        <v>1722.2969</v>
       </c>
       <c r="M3" t="n">
-        <v>1331.4138</v>
+        <v>2190.8917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1187.4235</v>
+        <v>6480.3842</v>
       </c>
       <c r="C4" t="n">
-        <v>39.3422</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>471.2117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.4401</v>
+      </c>
+      <c r="E4" t="n">
+        <v>111.1722</v>
+      </c>
       <c r="F4" t="n">
-        <v>1.6579</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1348.2807</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3666.2551</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5776</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2744.8581</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32.4119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18.5354</v>
+      </c>
       <c r="L4" t="n">
-        <v>611.057</v>
+        <v>1696.7286</v>
       </c>
       <c r="M4" t="n">
-        <v>1594.3112</v>
+        <v>1771.2543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5435.5825</v>
+        <v>6848.198</v>
       </c>
       <c r="C5" t="n">
-        <v>71.39879999999999</v>
+        <v>477.8</v>
       </c>
       <c r="D5" t="n">
-        <v>9.9255</v>
+        <v>64.8142</v>
       </c>
       <c r="E5" t="n">
-        <v>123.3201</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>131.3541</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1231.7252</v>
+      </c>
       <c r="G5" t="n">
-        <v>4376.2629</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>4079.5733</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.0523</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3106.5188</v>
+      </c>
       <c r="J5" t="n">
-        <v>131.5419</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>44.9827</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17.7325</v>
+      </c>
       <c r="L5" t="n">
-        <v>868.8532</v>
+        <v>1860.907</v>
       </c>
       <c r="M5" t="n">
-        <v>2046.8624</v>
+        <v>1853.2925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4969.125</v>
+        <v>8260.7567</v>
       </c>
       <c r="C6" t="n">
-        <v>132.871</v>
+        <v>444.0702</v>
       </c>
       <c r="D6" t="n">
-        <v>13.2114</v>
+        <v>66.37949999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>143.7804</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>144.803</v>
+      </c>
+      <c r="F6" t="n">
+        <v>255.0251</v>
+      </c>
       <c r="G6" t="n">
-        <v>3040.1697</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>5490.3967</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3109.153</v>
+      </c>
       <c r="J6" t="n">
-        <v>96.1564</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>44.5003</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17.7007</v>
+      </c>
       <c r="L6" t="n">
-        <v>937.8958</v>
+        <v>1984.8085</v>
       </c>
       <c r="M6" t="n">
-        <v>2450.0729</v>
+        <v>1890.816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4565.4326</v>
+        <v>8480.6186</v>
       </c>
       <c r="C7" t="n">
-        <v>220.6644</v>
+        <v>467.8795</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6372</v>
+        <v>69.732</v>
       </c>
       <c r="E7" t="n">
-        <v>126.5821</v>
+        <v>149.6187</v>
       </c>
       <c r="F7" t="n">
-        <v>48.382</v>
+        <v>247.7237</v>
       </c>
       <c r="G7" t="n">
-        <v>3278.0998</v>
+        <v>5751.3695</v>
       </c>
       <c r="H7" t="n">
-        <v>5.1633</v>
+        <v>2.7997</v>
       </c>
       <c r="I7" t="n">
-        <v>1124.497</v>
+        <v>3369.384</v>
       </c>
       <c r="J7" t="n">
-        <v>67.77849999999999</v>
+        <v>32.7121</v>
       </c>
       <c r="K7" t="n">
-        <v>18.4114</v>
+        <v>18.8862</v>
       </c>
       <c r="L7" t="n">
-        <v>940.1701</v>
+        <v>2104.3835</v>
       </c>
       <c r="M7" t="n">
-        <v>1735.4134</v>
+        <v>1918.6624</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5111.2057</v>
+        <v>8547.7601</v>
       </c>
       <c r="C8" t="n">
-        <v>319.593</v>
+        <v>459.2806</v>
       </c>
       <c r="D8" t="n">
-        <v>43.982</v>
+        <v>68.181</v>
       </c>
       <c r="E8" t="n">
-        <v>184.1747</v>
+        <v>162.2461</v>
       </c>
       <c r="F8" t="n">
-        <v>20.251</v>
+        <v>249.4218</v>
       </c>
       <c r="G8" t="n">
-        <v>3412.7403</v>
+        <v>5680.2699</v>
       </c>
       <c r="H8" t="n">
-        <v>6.5473</v>
+        <v>15.6454</v>
       </c>
       <c r="I8" t="n">
-        <v>1324.9279</v>
+        <v>3762.1657</v>
       </c>
       <c r="J8" t="n">
-        <v>94.8882</v>
+        <v>21.1629</v>
       </c>
       <c r="K8" t="n">
-        <v>22.4518</v>
+        <v>18.3101</v>
       </c>
       <c r="L8" t="n">
-        <v>1110.4026</v>
+        <v>2737.8799</v>
       </c>
       <c r="M8" t="n">
-        <v>1959.4052</v>
+        <v>1918.0385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6075.3451</v>
+        <v>7774.9891</v>
       </c>
       <c r="C9" t="n">
-        <v>247.1493</v>
+        <v>498.5815</v>
       </c>
       <c r="D9" t="n">
-        <v>54.841</v>
+        <v>68.1161</v>
       </c>
       <c r="E9" t="n">
-        <v>144.2707</v>
+        <v>190.7888</v>
       </c>
       <c r="F9" t="n">
-        <v>72.7411</v>
+        <v>244.7431</v>
       </c>
       <c r="G9" t="n">
-        <v>4295.232</v>
+        <v>4841.9437</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2427</v>
+        <v>16.3857</v>
       </c>
       <c r="I9" t="n">
-        <v>1844.7677</v>
+        <v>3539.8107</v>
       </c>
       <c r="J9" t="n">
-        <v>79.2936</v>
+        <v>21.0034</v>
       </c>
       <c r="K9" t="n">
-        <v>24.3244</v>
+        <v>19.3592</v>
       </c>
       <c r="L9" t="n">
-        <v>1338.3742</v>
+        <v>2842.9495</v>
       </c>
       <c r="M9" t="n">
-        <v>1924.8523</v>
+        <v>2112.8919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6755.3</v>
+        <v>8439.1391</v>
       </c>
       <c r="C10" t="n">
-        <v>450.2</v>
+        <v>629.8932</v>
       </c>
       <c r="D10" t="n">
-        <v>54.4</v>
+        <v>71.4083</v>
       </c>
       <c r="E10" t="n">
-        <v>107.2</v>
+        <v>273.8325</v>
       </c>
       <c r="F10" t="n">
-        <v>52.9</v>
+        <v>334.1367</v>
       </c>
       <c r="G10" t="n">
-        <v>4741.6</v>
+        <v>5453.0397</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>16.9561</v>
       </c>
       <c r="I10" t="n">
-        <v>1843.7</v>
+        <v>3562.3773</v>
       </c>
       <c r="J10" t="n">
-        <v>62.5</v>
+        <v>19.1754</v>
       </c>
       <c r="K10" t="n">
-        <v>21.4</v>
+        <v>7.974</v>
       </c>
       <c r="L10" t="n">
-        <v>1480.6</v>
+        <v>2508.6363</v>
       </c>
       <c r="M10" t="n">
-        <v>1924.5</v>
+        <v>2061.1499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7142.531</v>
+        <v>8677.8866</v>
       </c>
       <c r="C11" t="n">
-        <v>366.7129</v>
+        <v>672.7287</v>
       </c>
       <c r="D11" t="n">
-        <v>234.1744</v>
+        <v>62.6191</v>
       </c>
       <c r="E11" t="n">
-        <v>109.665</v>
+        <v>259.9195</v>
       </c>
       <c r="F11" t="n">
-        <v>55.9865</v>
+        <v>112.9767</v>
       </c>
       <c r="G11" t="n">
-        <v>4737.8976</v>
+        <v>6279.5047</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1581</v>
+        <v>14.8174</v>
       </c>
       <c r="I11" t="n">
-        <v>1760.6241</v>
+        <v>3793.0862</v>
       </c>
       <c r="J11" t="n">
-        <v>60.7638</v>
+        <v>17.3065</v>
       </c>
       <c r="K11" t="n">
-        <v>26.8552</v>
+        <v>28.2762</v>
       </c>
       <c r="L11" t="n">
-        <v>1722.2969</v>
+        <v>2653.8745</v>
       </c>
       <c r="M11" t="n">
-        <v>2190.8917</v>
+        <v>2091.4097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6480.3842</v>
+        <v>8512.614600000001</v>
       </c>
       <c r="C12" t="n">
-        <v>471.2117</v>
+        <v>674.7628999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>90.4401</v>
+        <v>60.9696</v>
       </c>
       <c r="E12" t="n">
-        <v>111.1722</v>
+        <v>385.3556</v>
       </c>
       <c r="F12" t="n">
-        <v>1348.2807</v>
+        <v>86.7294</v>
       </c>
       <c r="G12" t="n">
-        <v>3666.2551</v>
+        <v>6164.0004</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5776</v>
+        <v>15.3534</v>
       </c>
       <c r="I12" t="n">
-        <v>2744.8581</v>
+        <v>3816.9831</v>
       </c>
       <c r="J12" t="n">
-        <v>32.4119</v>
+        <v>13.1646</v>
       </c>
       <c r="K12" t="n">
-        <v>18.5354</v>
+        <v>28.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1696.7286</v>
+        <v>2742.1605</v>
       </c>
       <c r="M12" t="n">
-        <v>1771.2543</v>
+        <v>1939.9058</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6848.198</v>
+        <v>9020.0749</v>
       </c>
       <c r="C13" t="n">
-        <v>477.8</v>
+        <v>793.6376</v>
       </c>
       <c r="D13" t="n">
-        <v>64.8142</v>
+        <v>58.3108</v>
       </c>
       <c r="E13" t="n">
-        <v>131.3541</v>
+        <v>307.8078</v>
       </c>
       <c r="F13" t="n">
-        <v>1231.7252</v>
+        <v>107.9879</v>
       </c>
       <c r="G13" t="n">
-        <v>4079.5733</v>
+        <v>6355.537</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0523</v>
+        <v>13.9446</v>
       </c>
       <c r="I13" t="n">
-        <v>3106.5188</v>
+        <v>3669.5509</v>
       </c>
       <c r="J13" t="n">
-        <v>44.9827</v>
+        <v>12.1381</v>
       </c>
       <c r="K13" t="n">
-        <v>17.7325</v>
+        <v>29.3254</v>
       </c>
       <c r="L13" t="n">
-        <v>1860.907</v>
+        <v>2729.8174</v>
       </c>
       <c r="M13" t="n">
-        <v>1853.2925</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8260.7567</v>
-      </c>
-      <c r="C14" t="n">
-        <v>444.0702</v>
-      </c>
-      <c r="D14" t="n">
-        <v>66.37949999999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>144.803</v>
-      </c>
-      <c r="F14" t="n">
-        <v>255.0251</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5490.3967</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.271</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3109.153</v>
-      </c>
-      <c r="J14" t="n">
-        <v>44.5003</v>
-      </c>
-      <c r="K14" t="n">
-        <v>17.7007</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1984.8085</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1890.816</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8480.6186</v>
-      </c>
-      <c r="C15" t="n">
-        <v>467.8795</v>
-      </c>
-      <c r="D15" t="n">
-        <v>69.732</v>
-      </c>
-      <c r="E15" t="n">
-        <v>149.6187</v>
-      </c>
-      <c r="F15" t="n">
-        <v>247.7237</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5751.3695</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.7997</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3369.384</v>
-      </c>
-      <c r="J15" t="n">
-        <v>32.7121</v>
-      </c>
-      <c r="K15" t="n">
-        <v>18.8862</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2104.3835</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1918.6624</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8547.7601</v>
-      </c>
-      <c r="C16" t="n">
-        <v>459.2806</v>
-      </c>
-      <c r="D16" t="n">
-        <v>68.181</v>
-      </c>
-      <c r="E16" t="n">
-        <v>162.2461</v>
-      </c>
-      <c r="F16" t="n">
-        <v>249.4218</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5680.2699</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15.6454</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3762.1657</v>
-      </c>
-      <c r="J16" t="n">
-        <v>21.1629</v>
-      </c>
-      <c r="K16" t="n">
-        <v>18.3101</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2737.8799</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1918.0385</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7774.9891</v>
-      </c>
-      <c r="C17" t="n">
-        <v>498.5815</v>
-      </c>
-      <c r="D17" t="n">
-        <v>68.1161</v>
-      </c>
-      <c r="E17" t="n">
-        <v>190.7888</v>
-      </c>
-      <c r="F17" t="n">
-        <v>244.7431</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4841.9437</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16.3857</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3539.8107</v>
-      </c>
-      <c r="J17" t="n">
-        <v>21.0034</v>
-      </c>
-      <c r="K17" t="n">
-        <v>19.3592</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2842.9495</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2112.8919</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8439.1391</v>
-      </c>
-      <c r="C18" t="n">
-        <v>629.8932</v>
-      </c>
-      <c r="D18" t="n">
-        <v>71.4083</v>
-      </c>
-      <c r="E18" t="n">
-        <v>273.8325</v>
-      </c>
-      <c r="F18" t="n">
-        <v>334.1367</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5453.0397</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16.9561</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3562.3773</v>
-      </c>
-      <c r="J18" t="n">
-        <v>19.1754</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7.974</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2508.6363</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2061.1499</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8677.8866</v>
-      </c>
-      <c r="C19" t="n">
-        <v>672.7287</v>
-      </c>
-      <c r="D19" t="n">
-        <v>62.6191</v>
-      </c>
-      <c r="E19" t="n">
-        <v>259.9195</v>
-      </c>
-      <c r="F19" t="n">
-        <v>112.9767</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6279.5047</v>
-      </c>
-      <c r="H19" t="n">
-        <v>14.8174</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3793.0862</v>
-      </c>
-      <c r="J19" t="n">
-        <v>17.3065</v>
-      </c>
-      <c r="K19" t="n">
-        <v>28.2762</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2653.8745</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2091.4097</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8512.614600000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>674.7628999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>60.9696</v>
-      </c>
-      <c r="E20" t="n">
-        <v>385.3556</v>
-      </c>
-      <c r="F20" t="n">
-        <v>86.7294</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6164.0004</v>
-      </c>
-      <c r="H20" t="n">
-        <v>15.3534</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3816.9831</v>
-      </c>
-      <c r="J20" t="n">
-        <v>13.1646</v>
-      </c>
-      <c r="K20" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2742.1605</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1939.9058</v>
+        <v>1953.278</v>
       </c>
     </row>
   </sheetData>
